--- a/cv comp.xlsx
+++ b/cv comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\7406_cbb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFC7C71-99DC-41B9-964E-C673421F4CCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521AD2B2-53D5-4B1B-A9E3-E1DC7F53BF7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{EA9A940E-D9A4-4588-B336-A3109C60453F}"/>
   </bookViews>
@@ -35,15 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Metric</t>
-  </si>
-  <si>
     <t>MSE</t>
   </si>
   <si>
-    <t>+/- 0.5 Game Prediction Accuracy</t>
-  </si>
-  <si>
     <t>LASSO</t>
   </si>
   <si>
@@ -60,13 +54,19 @@
   </si>
   <si>
     <t>RANDOM FOREST</t>
+  </si>
+  <si>
+    <t>%ACC</t>
+  </si>
+  <si>
+    <t>Model Performance Comparison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -101,118 +108,175 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF392CFF-F2AD-402A-AD8E-A04986FD40B4}">
-  <dimension ref="G2:M9"/>
+  <dimension ref="G2:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -541,8 +605,8 @@
     <col min="3" max="3" width="10.83984375" customWidth="1"/>
     <col min="4" max="4" width="10.5234375" customWidth="1"/>
     <col min="5" max="5" width="11.3125" customWidth="1"/>
-    <col min="6" max="6" width="3.7890625" customWidth="1"/>
-    <col min="7" max="7" width="25.26171875" customWidth="1"/>
+    <col min="6" max="6" width="22.9453125" customWidth="1"/>
+    <col min="7" max="7" width="9.7890625" customWidth="1"/>
     <col min="8" max="8" width="12.83984375" customWidth="1"/>
     <col min="11" max="11" width="9.89453125" customWidth="1"/>
     <col min="12" max="12" width="12.20703125" customWidth="1"/>
@@ -554,76 +618,92 @@
     <row r="4" spans="7:13" x14ac:dyDescent="0.55000000000000004">
       <c r="J4" s="1"/>
     </row>
-    <row r="7" spans="7:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="G7" s="8" t="s">
+    <row r="6" spans="7:13" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="7:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="G7" s="6"/>
+      <c r="H7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="7:13" ht="25.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="H8" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.873</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="9" spans="7:13" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>8</v>
+      <c r="H9" s="11">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="M9" s="12">
+        <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="8" spans="7:13" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="G8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.873</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.872</v>
-      </c>
-    </row>
-    <row r="9" spans="7:13" ht="41.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
-      <c r="G9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.46899999999999997</v>
-      </c>
+    <row r="14" spans="7:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="15" spans="7:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:M6"/>
+  </mergeCells>
   <conditionalFormatting sqref="H8:M8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
